--- a/doc/项目管理系统表结构.xlsx
+++ b/doc/项目管理系统表结构.xlsx
@@ -1483,7 +1483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1838,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4200,16 +4200,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="H125:M133"/>
+    <mergeCell ref="A82:F82"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="H125:M133"/>
-    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/项目管理系统表结构.xlsx
+++ b/doc/项目管理系统表结构.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D1AAC-108C-4461-9FEA-8EE2ECCF35DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理表头" sheetId="6" r:id="rId1"/>
@@ -15,17 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="268">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,13 +1058,45 @@
   </si>
   <si>
     <t>data_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作难度系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>difficulty_coefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于绩效考核。1、1.2、1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于绩效考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance_assessment_weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1483,14 +1511,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -1835,11 +1863,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3725,60 +3753,44 @@
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
-        <v>195</v>
+      <c r="A125" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>32</v>
+        <v>262</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D125" s="6">
-        <v>1</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="12"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
-        <v>198</v>
+      <c r="A126" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>32</v>
+        <v>262</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="5" t="s">
-        <v>199</v>
+      <c r="E126" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
+        <v>266</v>
+      </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>32</v>
@@ -3786,14 +3798,18 @@
       <c r="C127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
       <c r="E127" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H127" s="12"/>
+        <v>196</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
@@ -3802,7 +3818,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>32</v>
@@ -3812,7 +3828,7 @@
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="5" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>154</v>
@@ -3825,22 +3841,22 @@
       <c r="M128" s="12"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>248</v>
+      <c r="A129" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
@@ -3849,22 +3865,22 @@
       <c r="M129" s="12"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>7</v>
+      <c r="A130" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
@@ -3874,7 +3890,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>29</v>
@@ -3886,7 +3902,7 @@
         <v>97</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F131" s="1"/>
       <c r="H131" s="12"/>
@@ -3898,10 +3914,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
@@ -3910,7 +3926,7 @@
         <v>31</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F132" s="1"/>
       <c r="H132" s="12"/>
@@ -3922,19 +3938,19 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D133" s="6">
-        <v>1</v>
+      <c r="D133" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F133" s="1"/>
       <c r="H133" s="12"/>
@@ -3944,209 +3960,221 @@
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1" t="s">
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>235</v>
-      </c>
+      <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>231</v>
+        <v>18</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D141" s="1"/>
-      <c r="E141" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>238</v>
+      <c r="E141" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>231</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F142" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
-        <v>240</v>
+      <c r="A143" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>231</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F143" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>231</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="5" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>29</v>
@@ -4158,16 +4186,16 @@
         <v>97</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
@@ -4176,40 +4204,76 @@
         <v>31</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="6">
+      <c r="C152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="6">
         <v>1</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F150" s="1"/>
+      <c r="F152" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="H125:M133"/>
-    <mergeCell ref="A82:F82"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="H127:M135"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
